--- a/data/trans_dic/P6903-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6903-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P6903-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6903-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>7,9%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20,08%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>23,95%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10,35%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,76%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,75%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,48%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,27%</t>
         </is>
       </c>
     </row>
@@ -724,22 +724,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0,0; 31,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>4,69; 43,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,0; 62,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>0,0; 50,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,37 +749,37 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0,0; 89,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,0; 47,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>12,1; 59,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>0,0; 27,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>9,9; 45,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>1,75; 47,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>7,5; 39,46</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,64%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,1%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,68%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,52%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>19,72; 44,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>16,1; 39,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>23,41; 54,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>22,33; 51,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>25,4; 65,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>19,25; 56,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>23,65; 64,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>29,26; 54,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>25,78; 46,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>21,13; 42,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>27,24; 51,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,48</t>
+          <t>29,62; 48,82</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,11%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,56%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,85%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,7%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>25,72; 41,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,2</t>
+          <t>15,0; 33,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>24,93; 44,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>27,82; 48,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>13,51; 36,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>23,39; 49,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>31,31; 57,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>33,03; 49,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>23,76; 37,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>20,48; 36,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>30,07; 46,23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>33,42; 47,17</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,48%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,89%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,85%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>16,69; 35,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>18,04; 39,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>31,75; 51,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>27,28; 54,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>20,08; 48,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>17,01; 42,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>33,08; 57,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>22,79; 48,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>20,85; 36,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>20,34; 37,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>35,78; 50,72</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,31</t>
+          <t>27,04; 47,96</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,02%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,01%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,13%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,65%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,62%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,47%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,81%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,91%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,79%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,82%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>29,72; 46,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>11,15; 29,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>33,87; 55,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>23,47; 42,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>23,42; 43,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>25,58; 50,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>24,3; 47,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,28</t>
+          <t>39,41; 59,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>29,56; 41,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>19,87; 35,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,31</t>
+          <t>32,41; 48,29</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>33,97; 48,76</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,84%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,23%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,69%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,66%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,33%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,87%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,0%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>27,22; 35,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>19,38; 28,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>33,49; 44,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>29,89; 41,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>25,12; 37,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>27,66; 41,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>34,78; 48,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>37,17; 48,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>27,72; 34,98</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>24,38; 32,36</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>35,89; 44,44</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>34,84; 42,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6903-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6903-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>26,39%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>25,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>35,08%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>30,17%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>36,91%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>36,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32,75%</t>
+          <t>39,37%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>29,15%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>28,87%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>35,62%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>34,16%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,18</t>
+          <t>16,58; 36,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,69; 43,93</t>
+          <t>16,36; 35,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,23</t>
+          <t>22,46; 51,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,67</t>
+          <t>18,11; 44,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>19,64; 54,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 89,35</t>
+          <t>21,32; 53,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,15</t>
+          <t>21,58; 55,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,1; 59,46</t>
+          <t>28,65; 51,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,39</t>
+          <t>20,41; 38,41</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,9; 45,77</t>
+          <t>20,5; 38,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 47,46</t>
+          <t>25,73; 46,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,5; 39,46</t>
+          <t>26,22; 44,09</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>33,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>37,0%</t>
+          <t>33,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>35,96%</t>
+          <t>37,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>44,26%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35,63%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>41,98%</t>
+          <t>45,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>41,74%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>34,64%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>30,1%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>38,68%</t>
+          <t>37,85%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>38,52%</t>
+          <t>38,93%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,72; 44,6</t>
+          <t>25,72; 41,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,1; 39,0</t>
+          <t>15,0; 33,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,41; 54,59</t>
+          <t>24,93; 44,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,33; 51,89</t>
+          <t>27,24; 48,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,4; 65,11</t>
+          <t>13,51; 36,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,25; 56,94</t>
+          <t>23,39; 49,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,65; 64,41</t>
+          <t>31,31; 57,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,26; 54,53</t>
+          <t>32,08; 48,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,78; 46,53</t>
+          <t>23,76; 37,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,13; 42,38</t>
+          <t>20,48; 36,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,24; 51,05</t>
+          <t>30,07; 46,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,62; 48,82</t>
+          <t>32,59; 46,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>33,11%</t>
+          <t>25,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,71%</t>
+          <t>41,09%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>37,94%</t>
+          <t>39,02%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>32,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>28,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>45,09%</t>
+          <t>45,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>41,56%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>27,48%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>37,85%</t>
+          <t>42,89%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>39,7%</t>
+          <t>32,03%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,72; 41,44</t>
+          <t>16,69; 35,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,0; 33,82</t>
+          <t>18,04; 39,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,93; 44,79</t>
+          <t>31,75; 51,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,82; 48,83</t>
+          <t>25,91; 53,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,51; 36,8</t>
+          <t>20,08; 48,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,39; 49,97</t>
+          <t>17,01; 42,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,31; 57,7</t>
+          <t>33,08; 57,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,03; 49,83</t>
+          <t>9,68; 46,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,76; 37,51</t>
+          <t>20,85; 36,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,48; 36,12</t>
+          <t>20,34; 37,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,07; 46,23</t>
+          <t>35,78; 50,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>33,42; 47,17</t>
+          <t>13,17; 43,12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>38,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>41,09%</t>
+          <t>44,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>40,75%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,6%</t>
+          <t>32,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,49%</t>
+          <t>37,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>45,94%</t>
+          <t>36,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>47,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>27,48%</t>
+          <t>35,91%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>28,21%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>42,89%</t>
+          <t>40,79%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>38,85%</t>
+          <t>39,46%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,69; 35,11</t>
+          <t>29,72; 46,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,04; 39,14</t>
+          <t>11,15; 29,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,75; 51,18</t>
+          <t>33,87; 55,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,28; 54,49</t>
+          <t>21,97; 40,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,08; 48,47</t>
+          <t>23,42; 43,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,01; 42,84</t>
+          <t>25,58; 50,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,08; 57,17</t>
+          <t>24,3; 47,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,79; 48,97</t>
+          <t>38,94; 58,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,85; 36,28</t>
+          <t>29,56; 41,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,34; 37,15</t>
+          <t>19,87; 35,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35,78; 50,72</t>
+          <t>32,41; 48,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>27,04; 47,96</t>
+          <t>32,66; 46,66</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>38,02%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>23,83%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>44,01%</t>
+          <t>38,84%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>32,13%</t>
+          <t>34,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>32,65%</t>
+          <t>30,78%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>34,69%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>36,47%</t>
+          <t>41,54%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>48,81%</t>
+          <t>39,09%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>35,91%</t>
+          <t>31,33%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>40,79%</t>
+          <t>39,87%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>40,82%</t>
+          <t>36,7%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>29,72; 46,36</t>
+          <t>27,22; 35,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,15; 29,41</t>
+          <t>19,38; 28,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,87; 55,86</t>
+          <t>33,49; 44,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,47; 42,63</t>
+          <t>28,98; 40,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,42; 43,56</t>
+          <t>25,12; 37,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,58; 50,31</t>
+          <t>27,66; 41,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,3; 47,85</t>
+          <t>34,78; 48,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>39,41; 59,8</t>
+          <t>28,42; 45,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29,56; 41,8</t>
+          <t>27,72; 34,98</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,87; 35,12</t>
+          <t>24,38; 32,36</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>32,41; 48,29</t>
+          <t>35,89; 44,44</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>33,97; 48,76</t>
+          <t>30,3; 40,66</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>31,59%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>23,83%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>38,84%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>35,23%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>30,78%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>34,69%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>41,54%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>42,66%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>31,33%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>28,15%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>39,87%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>39,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>27,22; 35,99</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>19,38; 28,66</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>33,49; 44,56</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>29,89; 41,15</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>25,12; 37,58</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>27,66; 41,32</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>34,78; 48,52</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>37,17; 48,13</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>27,72; 34,98</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>24,38; 32,36</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>35,89; 44,44</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>34,84; 42,56</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P6903-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6903-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,58; 36,92</t>
+          <t>16,7; 37,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,36; 35,7</t>
+          <t>15,69; 36,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,46; 51,34</t>
+          <t>22,38; 48,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,11; 44,09</t>
+          <t>18,96; 45,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,64; 54,09</t>
+          <t>20,78; 53,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,32; 53,89</t>
+          <t>22,02; 58,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,58; 55,32</t>
+          <t>20,21; 55,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,65; 51,05</t>
+          <t>28,73; 50,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,41; 38,41</t>
+          <t>21,06; 39,77</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,5; 38,67</t>
+          <t>20,41; 38,17</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,73; 46,31</t>
+          <t>25,6; 46,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,22; 44,09</t>
+          <t>25,69; 42,58</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,72; 41,44</t>
+          <t>26,0; 41,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,0; 33,82</t>
+          <t>14,83; 34,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,93; 44,79</t>
+          <t>24,16; 45,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,24; 48,61</t>
+          <t>27,79; 48,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,51; 36,8</t>
+          <t>12,65; 36,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,39; 49,97</t>
+          <t>23,31; 49,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,31; 57,7</t>
+          <t>31,12; 58,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32,08; 48,64</t>
+          <t>32,19; 49,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,76; 37,51</t>
+          <t>24,05; 36,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,48; 36,12</t>
+          <t>20,96; 35,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>30,07; 46,23</t>
+          <t>29,82; 46,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,59; 46,62</t>
+          <t>32,16; 46,35</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,69; 35,11</t>
+          <t>16,93; 35,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,04; 39,14</t>
+          <t>18,46; 39,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,75; 51,18</t>
+          <t>31,36; 50,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,91; 53,06</t>
+          <t>26,5; 53,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,08; 48,47</t>
+          <t>20,79; 47,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,01; 42,84</t>
+          <t>16,65; 42,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,08; 57,17</t>
+          <t>33,81; 58,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,68; 46,52</t>
+          <t>10,03; 46,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,85; 36,28</t>
+          <t>19,63; 35,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,34; 37,15</t>
+          <t>20,7; 36,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>35,78; 50,72</t>
+          <t>35,44; 50,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,17; 43,12</t>
+          <t>15,16; 44,13</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,72; 46,36</t>
+          <t>30,18; 46,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,15; 29,41</t>
+          <t>11,33; 29,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,87; 55,86</t>
+          <t>33,53; 54,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,97; 40,8</t>
+          <t>21,6; 40,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,42; 43,56</t>
+          <t>23,26; 43,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,58; 50,31</t>
+          <t>26,79; 51,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,3; 47,85</t>
+          <t>25,4; 49,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,94; 58,11</t>
+          <t>38,82; 57,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,56; 41,8</t>
+          <t>30,05; 42,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,87; 35,12</t>
+          <t>20,24; 35,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,41; 48,29</t>
+          <t>33,15; 48,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,66; 46,66</t>
+          <t>32,78; 46,89</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,22; 35,99</t>
+          <t>27,29; 36,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,38; 28,66</t>
+          <t>19,21; 28,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,49; 44,56</t>
+          <t>33,68; 44,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28,98; 40,16</t>
+          <t>28,69; 40,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,12; 37,58</t>
+          <t>25,09; 37,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,66; 41,32</t>
+          <t>28,46; 41,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,78; 48,52</t>
+          <t>35,45; 48,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,42; 45,4</t>
+          <t>28,29; 45,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>27,72; 34,98</t>
+          <t>27,76; 35,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,38; 32,36</t>
+          <t>24,5; 32,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>35,89; 44,44</t>
+          <t>35,71; 44,29</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>30,3; 40,66</t>
+          <t>31,06; 40,98</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que se siente agotado a todas horas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>20934</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18976</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19179</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>21484</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11589</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>13011</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10952</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>21528</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>32522</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>31988</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>30132</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>43012</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13246; 29727</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11852; 27577</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>12234; 26701</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13503; 32185</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6698; 17356</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7763; 20465</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6047; 16499</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15712; 27879</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>23502; 44372</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>22609; 42285</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>21653; 39448</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>32340; 53608</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>48342</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>21063</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>32690</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>41638</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>12084</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>22254</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>25051</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>39949</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>60425</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>43317</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>57740</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>81587</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>37948; 59924</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>13612; 31561</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>23432; 44322</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>30815; 53289</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6680; 19311</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>14535; 31098</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>17285; 32558</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>31780; 48423</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>47806; 73483</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>32306; 55117</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>45484; 70447</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>67406; 97154</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>27837</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>22299</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>45169</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>21236</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15169</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15094</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>29745</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>27234</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>43006</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>37393</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>74914</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>48470</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18619; 39103</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14687; 31620</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>34480; 55528</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14421; 29118</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9674; 22014</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8819; 22333</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21889; 37595</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9724; 45405</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>30724; 55622</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>27437; 48244</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>61900; 87375</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22938; 66779</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>52105</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>14936</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>38912</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>30827</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>28911</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>24113</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>24098</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>49502</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>81016</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>39050</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>63010</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>80329</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>41365; 63479</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8766; 23210</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>29647; 48371</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>21674; 40803</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>20593; 38227</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>17171; 33190</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>16782; 32752</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>40071; 59286</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>67795; 96628</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>28646; 50342</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>51209; 75548</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>66730; 95452</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>149217</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>77275</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>135950</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>115185</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>67753</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>74473</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>89846</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>138214</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>216970</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>151748</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>225796</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>253399</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>128890; 170546</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>62308; 92651</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>117870; 154859</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>96638; 137275</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>55237; 83314</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>61107; 89027</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>76669; 105873</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>99999; 160985</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>192224; 242444</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>132031; 174382</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>202214; 250839</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>214441; 282906</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>